--- a/data/pca/factorExposure/factorExposure_2010-06-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-15.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01277187033145494</v>
+        <v>-0.01659569742730107</v>
       </c>
       <c r="C2">
-        <v>-0.004043413023366237</v>
+        <v>0.0008257817836764557</v>
       </c>
       <c r="D2">
-        <v>0.01146906705075747</v>
+        <v>0.008537036071182344</v>
       </c>
       <c r="E2">
-        <v>-0.009951195143245798</v>
+        <v>-0.002679005729367195</v>
       </c>
       <c r="F2">
-        <v>-0.03477352465984345</v>
+        <v>0.01368071246424612</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1215989423612059</v>
+        <v>-0.09567710327021296</v>
       </c>
       <c r="C4">
-        <v>-0.1049201570848495</v>
+        <v>0.01756990683402646</v>
       </c>
       <c r="D4">
-        <v>-0.006453425913795236</v>
+        <v>0.08122806800288405</v>
       </c>
       <c r="E4">
-        <v>0.1592078385477629</v>
+        <v>0.02633555053576499</v>
       </c>
       <c r="F4">
-        <v>-0.05625827763119898</v>
+        <v>-0.0399600950248063</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1298964619251401</v>
+        <v>-0.1520503818115163</v>
       </c>
       <c r="C6">
-        <v>-0.05696319654012373</v>
+        <v>0.02432531515120471</v>
       </c>
       <c r="D6">
-        <v>-0.008920209303178562</v>
+        <v>-0.0226604550501395</v>
       </c>
       <c r="E6">
-        <v>0.04393148010227222</v>
+        <v>0.01517252251276183</v>
       </c>
       <c r="F6">
-        <v>0.04051904901581283</v>
+        <v>-0.03837790951364611</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07114644879472076</v>
+        <v>-0.06197193612686012</v>
       </c>
       <c r="C7">
-        <v>-0.07901919413157069</v>
+        <v>0.0001335402826388632</v>
       </c>
       <c r="D7">
-        <v>0.01319168159853128</v>
+        <v>0.05134934765518038</v>
       </c>
       <c r="E7">
-        <v>0.008148186982324168</v>
+        <v>0.01311792277816227</v>
       </c>
       <c r="F7">
-        <v>-0.007146882561566427</v>
+        <v>-0.05869173909002584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0450057467035212</v>
+        <v>-0.05974010275759953</v>
       </c>
       <c r="C8">
-        <v>-0.008412871110063313</v>
+        <v>-0.01268296112000586</v>
       </c>
       <c r="D8">
-        <v>0.005084665369162946</v>
+        <v>0.02773027301693084</v>
       </c>
       <c r="E8">
-        <v>0.1013745583235578</v>
+        <v>0.01202359432232457</v>
       </c>
       <c r="F8">
-        <v>-0.04811021916389706</v>
+        <v>0.02165479431468756</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08773993147937044</v>
+        <v>-0.07286521067338</v>
       </c>
       <c r="C9">
-        <v>-0.08335502967668268</v>
+        <v>0.01381878115627011</v>
       </c>
       <c r="D9">
-        <v>-0.02294704134526901</v>
+        <v>0.08042977322002719</v>
       </c>
       <c r="E9">
-        <v>0.1370486284936579</v>
+        <v>0.02083191706937753</v>
       </c>
       <c r="F9">
-        <v>-0.04781195563147531</v>
+        <v>-0.06222859616194037</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1361992277853088</v>
+        <v>-0.09239695166403246</v>
       </c>
       <c r="C10">
-        <v>0.1722279597145417</v>
+        <v>0.01457987958095607</v>
       </c>
       <c r="D10">
-        <v>0.006317077228876071</v>
+        <v>-0.1730876366813896</v>
       </c>
       <c r="E10">
-        <v>-0.03399798139156695</v>
+        <v>-0.03479998757643132</v>
       </c>
       <c r="F10">
-        <v>0.01333461727220538</v>
+        <v>0.05025208091456494</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06696374737582894</v>
+        <v>-0.08859816256523624</v>
       </c>
       <c r="C11">
-        <v>-0.06523983970654382</v>
+        <v>0.01301449151966198</v>
       </c>
       <c r="D11">
-        <v>-0.04249011743391294</v>
+        <v>0.1106092846628384</v>
       </c>
       <c r="E11">
-        <v>0.1027131474899092</v>
+        <v>0.04155891554045196</v>
       </c>
       <c r="F11">
-        <v>-0.04926450584060917</v>
+        <v>-0.02837715202553196</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0678824791531555</v>
+        <v>-0.09347147104227216</v>
       </c>
       <c r="C12">
-        <v>-0.07037953333703094</v>
+        <v>0.01094922414183616</v>
       </c>
       <c r="D12">
-        <v>-0.05176531834405754</v>
+        <v>0.117623487557253</v>
       </c>
       <c r="E12">
-        <v>0.1109930443826689</v>
+        <v>0.03935038987431989</v>
       </c>
       <c r="F12">
-        <v>-0.005930603007451353</v>
+        <v>-0.03067584444595973</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04038825310567525</v>
+        <v>-0.04405879081214839</v>
       </c>
       <c r="C13">
-        <v>-0.03823488806247572</v>
+        <v>0.004708847310997537</v>
       </c>
       <c r="D13">
-        <v>0.02096383721155765</v>
+        <v>0.04343735635100752</v>
       </c>
       <c r="E13">
-        <v>0.0370331418199748</v>
+        <v>-0.0152475235721292</v>
       </c>
       <c r="F13">
-        <v>-0.006235003113307195</v>
+        <v>-0.02053963623974275</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03704641919935959</v>
+        <v>-0.02211720581014663</v>
       </c>
       <c r="C14">
-        <v>-0.03621596721327123</v>
+        <v>0.01489251560319397</v>
       </c>
       <c r="D14">
-        <v>-0.01692180094722447</v>
+        <v>0.03093705787753693</v>
       </c>
       <c r="E14">
-        <v>0.05777514770083277</v>
+        <v>0.01540188210849324</v>
       </c>
       <c r="F14">
-        <v>-0.004208019841480833</v>
+        <v>-0.02790576964331696</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0201610537290876</v>
+        <v>-0.03255792383492048</v>
       </c>
       <c r="C15">
-        <v>-0.01540054473679889</v>
+        <v>0.005871233977464579</v>
       </c>
       <c r="D15">
-        <v>0.06888742913449655</v>
+        <v>0.0425358039412815</v>
       </c>
       <c r="E15">
-        <v>0.009739972331805994</v>
+        <v>0.007052652395213618</v>
       </c>
       <c r="F15">
-        <v>-0.032014993591053</v>
+        <v>-0.03474063438385984</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07654687501291785</v>
+        <v>-0.07547726927112239</v>
       </c>
       <c r="C16">
-        <v>-0.07818289010554458</v>
+        <v>0.004836529897655487</v>
       </c>
       <c r="D16">
-        <v>-0.0386895501923625</v>
+        <v>0.1145915160878817</v>
       </c>
       <c r="E16">
-        <v>0.09930393118337673</v>
+        <v>0.05648881957844816</v>
       </c>
       <c r="F16">
-        <v>-0.01546605548246312</v>
+        <v>-0.03704964565635114</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02007707274349984</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.00401315356588822</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02276617344857593</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01121395739431837</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02895771290985031</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04789508343434448</v>
+        <v>-0.06172219461047179</v>
       </c>
       <c r="C20">
-        <v>-0.02619111880258019</v>
+        <v>0.002496177403028022</v>
       </c>
       <c r="D20">
-        <v>0.03276443479661773</v>
+        <v>0.06990000198593457</v>
       </c>
       <c r="E20">
-        <v>0.07690198387913953</v>
+        <v>0.05079664910166942</v>
       </c>
       <c r="F20">
-        <v>0.0012255645749418</v>
+        <v>-0.03244408090460684</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02768485716975187</v>
+        <v>-0.03860427948959957</v>
       </c>
       <c r="C21">
-        <v>-0.01985479433273328</v>
+        <v>0.007787344138363709</v>
       </c>
       <c r="D21">
-        <v>-0.0192733113632475</v>
+        <v>0.03410158725410507</v>
       </c>
       <c r="E21">
-        <v>0.06410812903305176</v>
+        <v>-0.01289416642475083</v>
       </c>
       <c r="F21">
-        <v>-0.03882536072431717</v>
+        <v>0.01857213682492296</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05657768426050434</v>
+        <v>-0.04239145475351128</v>
       </c>
       <c r="C22">
-        <v>-0.01703159993587271</v>
+        <v>0.0007179616570386721</v>
       </c>
       <c r="D22">
-        <v>0.6479804821989922</v>
+        <v>0.002189796015479744</v>
       </c>
       <c r="E22">
-        <v>0.02519988556093693</v>
+        <v>0.03323591076320952</v>
       </c>
       <c r="F22">
-        <v>0.1186193615478544</v>
+        <v>0.02410313322484239</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05749671029593943</v>
+        <v>-0.04248457256066383</v>
       </c>
       <c r="C23">
-        <v>-0.0188569327593664</v>
+        <v>0.0007517759353703253</v>
       </c>
       <c r="D23">
-        <v>0.6502476272548992</v>
+        <v>0.002400105601955899</v>
       </c>
       <c r="E23">
-        <v>0.0303517132573971</v>
+        <v>0.03365592858658863</v>
       </c>
       <c r="F23">
-        <v>0.1178856028567389</v>
+        <v>0.02355419490575312</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07671108119226383</v>
+        <v>-0.08198518127225385</v>
       </c>
       <c r="C24">
-        <v>-0.07974316053224356</v>
+        <v>0.00503688011197572</v>
       </c>
       <c r="D24">
-        <v>-0.03090231402627039</v>
+        <v>0.1145481052917263</v>
       </c>
       <c r="E24">
-        <v>0.1010964001694024</v>
+        <v>0.04491422607805548</v>
       </c>
       <c r="F24">
-        <v>-0.02845825224674138</v>
+        <v>-0.02920225722073647</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07450527922570442</v>
+        <v>-0.08597844285850577</v>
       </c>
       <c r="C25">
-        <v>-0.05947688210854109</v>
+        <v>0.006942395761829827</v>
       </c>
       <c r="D25">
-        <v>-0.0567810529636626</v>
+        <v>0.101137375871992</v>
       </c>
       <c r="E25">
-        <v>0.1021345434302139</v>
+        <v>0.02705489795759938</v>
       </c>
       <c r="F25">
-        <v>-0.03060579698995082</v>
+        <v>-0.03865640705407566</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04349544625297696</v>
+        <v>-0.05648311157356598</v>
       </c>
       <c r="C26">
-        <v>-0.009838432255920406</v>
+        <v>0.01563200223781887</v>
       </c>
       <c r="D26">
-        <v>0.01423854694247707</v>
+        <v>0.03235183855395045</v>
       </c>
       <c r="E26">
-        <v>0.0809297080463823</v>
+        <v>0.02297596714667628</v>
       </c>
       <c r="F26">
-        <v>0.05970416382654511</v>
+        <v>0.001230740620781786</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1623778405912013</v>
+        <v>-0.1385046412636499</v>
       </c>
       <c r="C28">
-        <v>0.2683942578343008</v>
+        <v>0.01186860048979905</v>
       </c>
       <c r="D28">
-        <v>-0.01277182273958028</v>
+        <v>-0.2723397781335509</v>
       </c>
       <c r="E28">
-        <v>0.03675191050232245</v>
+        <v>-0.06566679436907186</v>
       </c>
       <c r="F28">
-        <v>0.006768847019917005</v>
+        <v>-0.04405415683827075</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03391407763928447</v>
+        <v>-0.02728091598811559</v>
       </c>
       <c r="C29">
-        <v>-0.03409305880535753</v>
+        <v>0.009152722312786011</v>
       </c>
       <c r="D29">
-        <v>-0.01580953000841054</v>
+        <v>0.02949115392890558</v>
       </c>
       <c r="E29">
-        <v>0.05501689276289474</v>
+        <v>0.007907641656417788</v>
       </c>
       <c r="F29">
-        <v>-0.01641015726322259</v>
+        <v>0.004919894934756984</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08708755102821322</v>
+        <v>-0.06472157140873187</v>
       </c>
       <c r="C30">
-        <v>-0.06788492214004099</v>
+        <v>0.006732591793977318</v>
       </c>
       <c r="D30">
-        <v>-0.02147645365572358</v>
+        <v>0.07854736598698646</v>
       </c>
       <c r="E30">
-        <v>0.2290812854382011</v>
+        <v>0.02192311633044841</v>
       </c>
       <c r="F30">
-        <v>0.1189672824906092</v>
+        <v>-0.1234306101305039</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02886408296146325</v>
+        <v>-0.04894083806800383</v>
       </c>
       <c r="C31">
-        <v>-0.06006344284059734</v>
+        <v>0.01516923490473617</v>
       </c>
       <c r="D31">
-        <v>0.002541570069385743</v>
+        <v>0.02924960037288864</v>
       </c>
       <c r="E31">
-        <v>0.04219224980518691</v>
+        <v>0.02634189780613458</v>
       </c>
       <c r="F31">
-        <v>-0.01542522886815476</v>
+        <v>0.002627299692360097</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05202296777756053</v>
+        <v>-0.04942307725368604</v>
       </c>
       <c r="C32">
-        <v>-0.01412914719596031</v>
+        <v>0.0005957185662087512</v>
       </c>
       <c r="D32">
-        <v>-0.05246007616074967</v>
+        <v>0.03012446942767438</v>
       </c>
       <c r="E32">
-        <v>0.03258953128283288</v>
+        <v>0.02658870162254679</v>
       </c>
       <c r="F32">
-        <v>-0.07606437004596601</v>
+        <v>-0.003566648227114032</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09777672369378786</v>
+        <v>-0.09202810134668997</v>
       </c>
       <c r="C33">
-        <v>-0.07860456835626189</v>
+        <v>0.0101417420166889</v>
       </c>
       <c r="D33">
-        <v>-0.02631605468176829</v>
+        <v>0.09038022842094071</v>
       </c>
       <c r="E33">
-        <v>0.06192867574073253</v>
+        <v>0.04335948054800273</v>
       </c>
       <c r="F33">
-        <v>0.02144473042024833</v>
+        <v>-0.04486887046756699</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06638000752410357</v>
+        <v>-0.06918131248953294</v>
       </c>
       <c r="C34">
-        <v>-0.06187479012783165</v>
+        <v>0.01290494656399063</v>
       </c>
       <c r="D34">
-        <v>-0.0398468305106361</v>
+        <v>0.09474628331117944</v>
       </c>
       <c r="E34">
-        <v>0.1013494228016348</v>
+        <v>0.0278471334271657</v>
       </c>
       <c r="F34">
-        <v>-0.032342706399236</v>
+        <v>-0.05446322887656088</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01622438850549777</v>
+        <v>-0.02440311146320572</v>
       </c>
       <c r="C35">
-        <v>-0.01334640822038659</v>
+        <v>0.002695895548251565</v>
       </c>
       <c r="D35">
-        <v>0.0007698348725302608</v>
+        <v>0.009345337214532646</v>
       </c>
       <c r="E35">
-        <v>0.03406830050237397</v>
+        <v>0.01069324129131189</v>
       </c>
       <c r="F35">
-        <v>-0.009229135611373162</v>
+        <v>-0.01251929656667108</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02487266495463307</v>
+        <v>-0.02503957356184979</v>
       </c>
       <c r="C36">
-        <v>-0.01728679314817949</v>
+        <v>0.007229805861196063</v>
       </c>
       <c r="D36">
-        <v>0.01175266376866692</v>
+        <v>0.03823440796500597</v>
       </c>
       <c r="E36">
-        <v>0.08349157609634611</v>
+        <v>0.01464831545942224</v>
       </c>
       <c r="F36">
-        <v>0.01110444825081603</v>
+        <v>-0.01103779840803652</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02046983760507059</v>
+        <v>-0.002867481315042809</v>
       </c>
       <c r="C38">
-        <v>-0.05018979749156118</v>
+        <v>0.0005171638685953357</v>
       </c>
       <c r="D38">
-        <v>0.02415853407220811</v>
+        <v>0.003082242839055829</v>
       </c>
       <c r="E38">
-        <v>-0.1049928237414285</v>
+        <v>0.003814566265268167</v>
       </c>
       <c r="F38">
-        <v>0.09391312861224925</v>
+        <v>0.002859559605021389</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1034031678344056</v>
+        <v>-0.1112612369579258</v>
       </c>
       <c r="C39">
-        <v>-0.09397369118056677</v>
+        <v>0.01874504790238274</v>
       </c>
       <c r="D39">
-        <v>-0.1318091729590426</v>
+        <v>0.1460703613387064</v>
       </c>
       <c r="E39">
-        <v>0.1693011386752159</v>
+        <v>0.05056743316129342</v>
       </c>
       <c r="F39">
-        <v>0.1054424553081691</v>
+        <v>-0.04293287741412255</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02808589991841126</v>
+        <v>-0.03752681457274754</v>
       </c>
       <c r="C40">
-        <v>-0.06669096449589515</v>
+        <v>0.007626864449489271</v>
       </c>
       <c r="D40">
-        <v>0.02800655223190283</v>
+        <v>0.02903135164631941</v>
       </c>
       <c r="E40">
-        <v>0.03349701851336994</v>
+        <v>0.001102152086826014</v>
       </c>
       <c r="F40">
-        <v>-0.09160527788114081</v>
+        <v>0.01804877995957212</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03365641565581423</v>
+        <v>-0.02655744407453674</v>
       </c>
       <c r="C41">
-        <v>-0.02516690906704381</v>
+        <v>0.006783291224285135</v>
       </c>
       <c r="D41">
-        <v>-0.01712944199356346</v>
+        <v>0.01080616450915571</v>
       </c>
       <c r="E41">
-        <v>0.005835668037398875</v>
+        <v>0.01100237227631136</v>
       </c>
       <c r="F41">
-        <v>0.01768459474845501</v>
+        <v>0.01243904363675244</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04404445924998744</v>
+        <v>-0.0429583977510612</v>
       </c>
       <c r="C43">
-        <v>-0.04574192455373492</v>
+        <v>0.007205277373887876</v>
       </c>
       <c r="D43">
-        <v>0.009769559762323727</v>
+        <v>0.02103706994921694</v>
       </c>
       <c r="E43">
-        <v>0.01863717692932038</v>
+        <v>0.02551055709139473</v>
       </c>
       <c r="F43">
-        <v>0.04955083676553203</v>
+        <v>0.01107559666978926</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09778706748882735</v>
+        <v>-0.07352912671276268</v>
       </c>
       <c r="C44">
-        <v>-0.09435043248440882</v>
+        <v>0.02296517188288941</v>
       </c>
       <c r="D44">
-        <v>0.0817825685030926</v>
+        <v>0.09781390381699048</v>
       </c>
       <c r="E44">
-        <v>0.1145404519794314</v>
+        <v>0.06567860009466162</v>
       </c>
       <c r="F44">
-        <v>-0.06595597431526905</v>
+        <v>-0.184133224506018</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0385439426069801</v>
+        <v>-0.02368009779819244</v>
       </c>
       <c r="C46">
-        <v>-0.03723823861470846</v>
+        <v>0.004355315307897712</v>
       </c>
       <c r="D46">
-        <v>0.04214917019694414</v>
+        <v>0.01156249028798935</v>
       </c>
       <c r="E46">
-        <v>0.03976848265133212</v>
+        <v>0.02113163962347169</v>
       </c>
       <c r="F46">
-        <v>-0.03919986669168344</v>
+        <v>0.001041599849244103</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05041406252081047</v>
+        <v>-0.05305847204466986</v>
       </c>
       <c r="C47">
-        <v>-0.04798427996696793</v>
+        <v>0.003466038099759476</v>
       </c>
       <c r="D47">
-        <v>-0.0005432175858541322</v>
+        <v>0.0130161176240641</v>
       </c>
       <c r="E47">
-        <v>0.01600865875372361</v>
+        <v>0.02286790367704416</v>
       </c>
       <c r="F47">
-        <v>0.01292761970497953</v>
+        <v>0.04758055858038696</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04471825126644501</v>
+        <v>-0.04830234807499989</v>
       </c>
       <c r="C48">
-        <v>-0.0189189772915353</v>
+        <v>0.003302283888249849</v>
       </c>
       <c r="D48">
-        <v>-0.01283772235322436</v>
+        <v>0.04529189824143091</v>
       </c>
       <c r="E48">
-        <v>0.08631839038804177</v>
+        <v>-0.008605333359642468</v>
       </c>
       <c r="F48">
-        <v>-0.04760657876219231</v>
+        <v>-0.01755852631623617</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2278800130891891</v>
+        <v>-0.2049319220182021</v>
       </c>
       <c r="C49">
-        <v>-0.03521413619321239</v>
+        <v>0.01670422824092039</v>
       </c>
       <c r="D49">
-        <v>-0.02789406748601276</v>
+        <v>-0.00884321147508749</v>
       </c>
       <c r="E49">
-        <v>-0.3109117881688309</v>
+        <v>0.04198311824469243</v>
       </c>
       <c r="F49">
-        <v>0.01805193435137963</v>
+        <v>-0.03343160650068103</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04030780248210494</v>
+        <v>-0.04866702521926281</v>
       </c>
       <c r="C50">
-        <v>-0.04694228424136516</v>
+        <v>0.01121816565411146</v>
       </c>
       <c r="D50">
-        <v>-0.01470146461416381</v>
+        <v>0.02649791875245373</v>
       </c>
       <c r="E50">
-        <v>0.06542567656830993</v>
+        <v>0.02844933750230807</v>
       </c>
       <c r="F50">
-        <v>0.02758580245955999</v>
+        <v>-0.006660418058665303</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02612426615694294</v>
+        <v>-0.003337249837414328</v>
       </c>
       <c r="C51">
-        <v>0.0003028445150106873</v>
+        <v>0.0008002449937502684</v>
       </c>
       <c r="D51">
-        <v>0.001153188640312652</v>
+        <v>-0.001725024640053608</v>
       </c>
       <c r="E51">
-        <v>-0.05458072950276343</v>
+        <v>0.001257752668055739</v>
       </c>
       <c r="F51">
-        <v>-0.01344733085045133</v>
+        <v>-0.004597960501524404</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.04703337670481519</v>
+        <v>-0.1420786977416147</v>
       </c>
       <c r="C52">
-        <v>-0.01908756207709583</v>
+        <v>0.01262874759613274</v>
       </c>
       <c r="D52">
-        <v>-0.02949361910971343</v>
+        <v>0.04925137502095531</v>
       </c>
       <c r="E52">
-        <v>0.02162125843995504</v>
+        <v>0.01745050943897873</v>
       </c>
       <c r="F52">
-        <v>0.03756488614596677</v>
+        <v>-0.03112926218551411</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1515834617064205</v>
+        <v>-0.172774280446155</v>
       </c>
       <c r="C53">
-        <v>-0.06112450238009842</v>
+        <v>0.01553104632892511</v>
       </c>
       <c r="D53">
-        <v>0.01260688441108353</v>
+        <v>0.01673595974195356</v>
       </c>
       <c r="E53">
-        <v>-0.07012847214845655</v>
+        <v>0.03797488023697049</v>
       </c>
       <c r="F53">
-        <v>0.1003622898470152</v>
+        <v>-0.05866514179620073</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05605011119866757</v>
+        <v>-0.02349566760364902</v>
       </c>
       <c r="C54">
-        <v>-0.04564976034863275</v>
+        <v>0.01294763882426921</v>
       </c>
       <c r="D54">
-        <v>0.001813028670078968</v>
+        <v>0.03146142837706402</v>
       </c>
       <c r="E54">
-        <v>0.1262546464901658</v>
+        <v>0.01278152424980213</v>
       </c>
       <c r="F54">
-        <v>-0.05624188695623829</v>
+        <v>0.0006063595156311971</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08178091976774417</v>
+        <v>-0.1143328107411028</v>
       </c>
       <c r="C55">
-        <v>-0.05490680071157786</v>
+        <v>0.01442993461613625</v>
       </c>
       <c r="D55">
-        <v>-0.03756186722124944</v>
+        <v>0.01455697689234232</v>
       </c>
       <c r="E55">
-        <v>-0.01900704556903287</v>
+        <v>0.03062808515520453</v>
       </c>
       <c r="F55">
-        <v>0.03261739398098499</v>
+        <v>-0.04599209998519878</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1439652277530689</v>
+        <v>-0.1774411447705327</v>
       </c>
       <c r="C56">
-        <v>-0.09973058794796018</v>
+        <v>0.01303478289531475</v>
       </c>
       <c r="D56">
-        <v>-0.02243857530746511</v>
+        <v>0.01052270957883223</v>
       </c>
       <c r="E56">
-        <v>-0.04112318257746784</v>
+        <v>0.04351417430959464</v>
       </c>
       <c r="F56">
-        <v>0.06880560625123952</v>
+        <v>-0.02884474860796932</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04202701919915629</v>
+        <v>-0.04727042778504469</v>
       </c>
       <c r="C58">
-        <v>-0.02744720268220919</v>
+        <v>0.002954245042494936</v>
       </c>
       <c r="D58">
-        <v>0.0392474525723775</v>
+        <v>0.06386264280129524</v>
       </c>
       <c r="E58">
-        <v>0.03843630398642255</v>
+        <v>0.01624501174974299</v>
       </c>
       <c r="F58">
-        <v>-0.01555727047810775</v>
+        <v>0.04454622278222998</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2166456684143381</v>
+        <v>-0.1693949288742047</v>
       </c>
       <c r="C59">
-        <v>0.2293637356453397</v>
+        <v>0.01360039814309762</v>
       </c>
       <c r="D59">
-        <v>-0.04986015388049375</v>
+        <v>-0.2326303123560611</v>
       </c>
       <c r="E59">
-        <v>-0.01162861284434133</v>
+        <v>-0.04742143637646466</v>
       </c>
       <c r="F59">
-        <v>-0.04607427190783435</v>
+        <v>0.03026929944383853</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2298121981979561</v>
+        <v>-0.2395758121982678</v>
       </c>
       <c r="C60">
-        <v>-0.1333440150056196</v>
+        <v>-0.004499021003658056</v>
       </c>
       <c r="D60">
-        <v>-0.0728482604572334</v>
+        <v>0.05025669250343674</v>
       </c>
       <c r="E60">
-        <v>-0.1297090485873086</v>
+        <v>0.01167503704737226</v>
       </c>
       <c r="F60">
-        <v>-0.004062095269502719</v>
+        <v>0.04469696295621976</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1053384988492343</v>
+        <v>-0.08623879409577548</v>
       </c>
       <c r="C61">
-        <v>-0.08464447394764685</v>
+        <v>0.01464673200378391</v>
       </c>
       <c r="D61">
-        <v>-0.07358446349345024</v>
+        <v>0.1079328072685031</v>
       </c>
       <c r="E61">
-        <v>0.1557744696600869</v>
+        <v>0.03372046206557546</v>
       </c>
       <c r="F61">
-        <v>0.02504087475790932</v>
+        <v>-0.0257364378590287</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1339813031953558</v>
+        <v>-0.1690244884697854</v>
       </c>
       <c r="C62">
-        <v>-0.06976778391207179</v>
+        <v>0.01690036942387509</v>
       </c>
       <c r="D62">
-        <v>0.0007328975249947191</v>
+        <v>0.01304774527236668</v>
       </c>
       <c r="E62">
-        <v>-0.07182001530744109</v>
+        <v>0.0391427420519935</v>
       </c>
       <c r="F62">
-        <v>0.0647238109880898</v>
+        <v>-0.01049589001719806</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04949648706280375</v>
+        <v>-0.04263105285366109</v>
       </c>
       <c r="C63">
-        <v>-0.02657043874948114</v>
+        <v>0.004059620027390883</v>
       </c>
       <c r="D63">
-        <v>-0.009083793159834231</v>
+        <v>0.0467844530616197</v>
       </c>
       <c r="E63">
-        <v>0.08162987177692257</v>
+        <v>0.01520665710488993</v>
       </c>
       <c r="F63">
-        <v>0.0073323803307108</v>
+        <v>-0.01233125915038164</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09488896382152909</v>
+        <v>-0.1118563182825753</v>
       </c>
       <c r="C64">
-        <v>-0.05608736200650721</v>
+        <v>0.01176906438455668</v>
       </c>
       <c r="D64">
-        <v>0.001606286300306962</v>
+        <v>0.04006102494703131</v>
       </c>
       <c r="E64">
-        <v>0.0651459181087756</v>
+        <v>0.01948656944369393</v>
       </c>
       <c r="F64">
-        <v>0.02112339647952845</v>
+        <v>-0.0169154534025354</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1185505502000761</v>
+        <v>-0.1436856568958788</v>
       </c>
       <c r="C65">
-        <v>-0.03296190447100948</v>
+        <v>0.03080262716668051</v>
       </c>
       <c r="D65">
-        <v>-0.02303194898350928</v>
+        <v>-0.04581644784608391</v>
       </c>
       <c r="E65">
-        <v>0.06085230614456507</v>
+        <v>0.003455716890095238</v>
       </c>
       <c r="F65">
-        <v>0.08404223573874688</v>
+        <v>-0.04195563593955011</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1218526822811867</v>
+        <v>-0.1334300341010182</v>
       </c>
       <c r="C66">
-        <v>-0.1231741965061281</v>
+        <v>0.01633037646184668</v>
       </c>
       <c r="D66">
-        <v>-0.1190383829203365</v>
+        <v>0.133474626817022</v>
       </c>
       <c r="E66">
-        <v>0.1441122830715898</v>
+        <v>0.05940888952126024</v>
       </c>
       <c r="F66">
-        <v>0.1242705749294352</v>
+        <v>-0.04702193913746769</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07160586324759462</v>
+        <v>-0.0650605614006995</v>
       </c>
       <c r="C67">
-        <v>-0.06118113185599937</v>
+        <v>0.003989407217231633</v>
       </c>
       <c r="D67">
-        <v>0.03350175740511338</v>
+        <v>0.05476364371240074</v>
       </c>
       <c r="E67">
-        <v>-0.115649409847884</v>
+        <v>0.02076948573158421</v>
       </c>
       <c r="F67">
-        <v>0.117533873414762</v>
+        <v>0.04292886189394787</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1354520594510425</v>
+        <v>-0.1115333960805474</v>
       </c>
       <c r="C68">
-        <v>0.2626572556710549</v>
+        <v>0.02283965101178369</v>
       </c>
       <c r="D68">
-        <v>-0.0236899671786595</v>
+        <v>-0.2697177321489115</v>
       </c>
       <c r="E68">
-        <v>0.05372096249851189</v>
+        <v>-0.08497314916747765</v>
       </c>
       <c r="F68">
-        <v>0.009980093021514359</v>
+        <v>-0.04873825048412139</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04721964786264968</v>
+        <v>-0.04058280257288455</v>
       </c>
       <c r="C69">
-        <v>-0.02005030732258275</v>
+        <v>0.001240542027967214</v>
       </c>
       <c r="D69">
-        <v>0.003839279309729437</v>
+        <v>0.009484551620675626</v>
       </c>
       <c r="E69">
-        <v>0.01249194785004674</v>
+        <v>0.02626295385758354</v>
       </c>
       <c r="F69">
-        <v>0.03383850188427034</v>
+        <v>0.01729059431679104</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05428026905406715</v>
+        <v>-0.06468118597379843</v>
       </c>
       <c r="C70">
-        <v>-0.06976057865838214</v>
+        <v>-0.02714711957855082</v>
       </c>
       <c r="D70">
-        <v>-0.02716906751782205</v>
+        <v>0.02698716010819359</v>
       </c>
       <c r="E70">
-        <v>0.03581080301021211</v>
+        <v>-0.0450885689066125</v>
       </c>
       <c r="F70">
-        <v>0.01287925589190405</v>
+        <v>0.3483379855702293</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1527000053866379</v>
+        <v>-0.1304234713428265</v>
       </c>
       <c r="C71">
-        <v>0.2765957105902837</v>
+        <v>0.02682011048982842</v>
       </c>
       <c r="D71">
-        <v>-0.0190526568064015</v>
+        <v>-0.2863269267492266</v>
       </c>
       <c r="E71">
-        <v>0.06497346996698354</v>
+        <v>-0.09262976197508092</v>
       </c>
       <c r="F71">
-        <v>0.03487641204998815</v>
+        <v>-0.05118348291356344</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1325575271501352</v>
+        <v>-0.1381102809138182</v>
       </c>
       <c r="C72">
-        <v>-0.0181920085811424</v>
+        <v>0.02384178612342165</v>
       </c>
       <c r="D72">
-        <v>-0.004716103796334329</v>
+        <v>0.005725968142430465</v>
       </c>
       <c r="E72">
-        <v>0.02724723487336043</v>
+        <v>0.04237315050858417</v>
       </c>
       <c r="F72">
-        <v>0.06207554880717572</v>
+        <v>-0.0239520955930923</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2178399818881966</v>
+        <v>-0.2078932087171653</v>
       </c>
       <c r="C73">
-        <v>-0.1032218504990098</v>
+        <v>0.01115961265996905</v>
       </c>
       <c r="D73">
-        <v>-0.1171621000310902</v>
+        <v>0.01906656945715929</v>
       </c>
       <c r="E73">
-        <v>-0.5133368503456947</v>
+        <v>0.06943964392475703</v>
       </c>
       <c r="F73">
-        <v>0.09742340297928991</v>
+        <v>-0.02486168352079679</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09593776299232741</v>
+        <v>-0.09375332389955111</v>
       </c>
       <c r="C74">
-        <v>-0.08710248591406138</v>
+        <v>0.01175829647203963</v>
       </c>
       <c r="D74">
-        <v>-0.005375011118657222</v>
+        <v>0.02529709872524706</v>
       </c>
       <c r="E74">
-        <v>-0.04374313686795813</v>
+        <v>0.05048052770768675</v>
       </c>
       <c r="F74">
-        <v>0.1072615592829412</v>
+        <v>-0.03991393928965684</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09464121497406039</v>
+        <v>-0.1301625319983573</v>
       </c>
       <c r="C75">
-        <v>-0.06929255971048184</v>
+        <v>0.02614731984625912</v>
       </c>
       <c r="D75">
-        <v>-0.004511274307716055</v>
+        <v>0.03469228885589497</v>
       </c>
       <c r="E75">
-        <v>-0.008720299267415596</v>
+        <v>0.06080954036636528</v>
       </c>
       <c r="F75">
-        <v>0.01078832414967979</v>
+        <v>-0.008729591814299571</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.05693523209992997</v>
+        <v>-0.007601304014062191</v>
       </c>
       <c r="C76">
-        <v>-0.06788263184276667</v>
+        <v>0.001686649278311149</v>
       </c>
       <c r="D76">
-        <v>0.005018074249173448</v>
+        <v>0.003076357627700819</v>
       </c>
       <c r="E76">
-        <v>-0.06001497685520703</v>
+        <v>0.007692774814758206</v>
       </c>
       <c r="F76">
-        <v>0.01691218513387542</v>
+        <v>-0.004138971318133241</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07113915476348258</v>
+        <v>-0.08079693171807746</v>
       </c>
       <c r="C77">
-        <v>-0.02834986445369203</v>
+        <v>0.01071577308613779</v>
       </c>
       <c r="D77">
-        <v>-0.03876992824001705</v>
+        <v>0.1085725405507415</v>
       </c>
       <c r="E77">
-        <v>0.1560341206991272</v>
+        <v>0.03333641670880173</v>
       </c>
       <c r="F77">
-        <v>-0.03482043253186635</v>
+        <v>-0.03470938022627522</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1629287618888482</v>
+        <v>-0.1099095479293672</v>
       </c>
       <c r="C78">
-        <v>-0.1606945536252825</v>
+        <v>0.04319757536005198</v>
       </c>
       <c r="D78">
-        <v>0.1623768698870648</v>
+        <v>0.1178145191862955</v>
       </c>
       <c r="E78">
-        <v>0.04300393305329871</v>
+        <v>0.08905287232347661</v>
       </c>
       <c r="F78">
-        <v>-0.6279728074213722</v>
+        <v>-0.07443678041868472</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1307446051845935</v>
+        <v>-0.1631417187910403</v>
       </c>
       <c r="C79">
-        <v>-0.08483575314653605</v>
+        <v>0.02005277122289379</v>
       </c>
       <c r="D79">
-        <v>0.0078472920726075</v>
+        <v>0.02069367742234155</v>
       </c>
       <c r="E79">
-        <v>-0.01702955873883189</v>
+        <v>0.04894105785901533</v>
       </c>
       <c r="F79">
-        <v>0.04798005635400722</v>
+        <v>-0.004480468102946685</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06936238467712957</v>
+        <v>-0.0806319660107967</v>
       </c>
       <c r="C80">
-        <v>-0.05065810307876832</v>
+        <v>-0.000771138432020693</v>
       </c>
       <c r="D80">
-        <v>-0.0825336411287063</v>
+        <v>0.05460241627873874</v>
       </c>
       <c r="E80">
-        <v>0.04393572153428452</v>
+        <v>0.02931792947770885</v>
       </c>
       <c r="F80">
-        <v>0.0319179503693743</v>
+        <v>0.009545301483518414</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1235644862897957</v>
+        <v>-0.1230697138866233</v>
       </c>
       <c r="C81">
-        <v>-0.07655618907263553</v>
+        <v>0.03003925487850113</v>
       </c>
       <c r="D81">
-        <v>0.01034883925883897</v>
+        <v>0.02016067962191899</v>
       </c>
       <c r="E81">
-        <v>0.05203259800196149</v>
+        <v>0.06139476486481469</v>
       </c>
       <c r="F81">
-        <v>0.02191370138633851</v>
+        <v>0.002908697896289221</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.125602895097745</v>
+        <v>-0.1623527007776278</v>
       </c>
       <c r="C82">
-        <v>-0.06561201289603982</v>
+        <v>0.02051452141527648</v>
       </c>
       <c r="D82">
-        <v>-0.009986134378856414</v>
+        <v>0.0171651850199931</v>
       </c>
       <c r="E82">
-        <v>-0.007072540854112169</v>
+        <v>0.03670097518417747</v>
       </c>
       <c r="F82">
-        <v>0.1006207018529818</v>
+        <v>-0.05444526396983321</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07744034397380714</v>
+        <v>-0.06617928808626036</v>
       </c>
       <c r="C83">
-        <v>-0.09054263866580932</v>
+        <v>0.004065774628173514</v>
       </c>
       <c r="D83">
-        <v>-0.02703405393046298</v>
+        <v>0.04965154754596705</v>
       </c>
       <c r="E83">
-        <v>0.01379906684060476</v>
+        <v>0.003395853312787353</v>
       </c>
       <c r="F83">
-        <v>0.09741809938611537</v>
+        <v>0.03833145123879615</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05681154892029577</v>
+        <v>-0.06124924223300964</v>
       </c>
       <c r="C84">
-        <v>0.06470278078851695</v>
+        <v>0.01146338992749909</v>
       </c>
       <c r="D84">
-        <v>-0.03804228622183294</v>
+        <v>0.06020164622505312</v>
       </c>
       <c r="E84">
-        <v>0.04624788711458633</v>
+        <v>-0.003879612324511607</v>
       </c>
       <c r="F84">
-        <v>-0.2246844399829464</v>
+        <v>-0.01461373547644186</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1188419944638029</v>
+        <v>-0.1380794242503699</v>
       </c>
       <c r="C85">
-        <v>-0.05523812526264379</v>
+        <v>0.02539991298353557</v>
       </c>
       <c r="D85">
-        <v>-0.00542256670536316</v>
+        <v>0.01666184743899361</v>
       </c>
       <c r="E85">
-        <v>-0.02196354952224285</v>
+        <v>0.04083009241660249</v>
       </c>
       <c r="F85">
-        <v>0.07050845372527859</v>
+        <v>-0.04083314946329954</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08844979606218632</v>
+        <v>-0.09990273471369834</v>
       </c>
       <c r="C86">
-        <v>-0.01891389681428848</v>
+        <v>-0.007347605544335154</v>
       </c>
       <c r="D86">
-        <v>0.02665395462279227</v>
+        <v>0.01933583387391417</v>
       </c>
       <c r="E86">
-        <v>-0.1602142098066804</v>
+        <v>0.1270927862780676</v>
       </c>
       <c r="F86">
-        <v>-0.5062046338769473</v>
+        <v>0.8246086197885107</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1187017860138439</v>
+        <v>-0.1002517940966558</v>
       </c>
       <c r="C87">
-        <v>-0.07635279011596927</v>
+        <v>0.02557376956690437</v>
       </c>
       <c r="D87">
-        <v>0.01483869574554054</v>
+        <v>0.07274177919429974</v>
       </c>
       <c r="E87">
-        <v>0.0543149061061882</v>
+        <v>-0.05283896153801736</v>
       </c>
       <c r="F87">
-        <v>-0.02606718975943821</v>
+        <v>-0.0926608901667305</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05615838858464665</v>
+        <v>-0.06213806784037586</v>
       </c>
       <c r="C88">
-        <v>-0.05906664841795242</v>
+        <v>0.003240972795912738</v>
       </c>
       <c r="D88">
-        <v>-0.03767876337444601</v>
+        <v>0.05368138495723867</v>
       </c>
       <c r="E88">
-        <v>0.02323798285384284</v>
+        <v>0.02570357826681511</v>
       </c>
       <c r="F88">
-        <v>0.04104214508697009</v>
+        <v>-0.006880256777276562</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.228069641233817</v>
+        <v>-0.1317175311651455</v>
       </c>
       <c r="C89">
-        <v>0.366644182690711</v>
+        <v>0.00562438368251237</v>
       </c>
       <c r="D89">
-        <v>0.05072171315234811</v>
+        <v>-0.26834959961565</v>
       </c>
       <c r="E89">
-        <v>-0.01742517128407981</v>
+        <v>-0.0905775510438043</v>
       </c>
       <c r="F89">
-        <v>-0.0589155788752985</v>
+        <v>-0.0328385820117097</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1622304611448741</v>
+        <v>-0.1426324358621798</v>
       </c>
       <c r="C90">
-        <v>0.2569254912204381</v>
+        <v>0.02252371776198237</v>
       </c>
       <c r="D90">
-        <v>-0.01459978595194331</v>
+        <v>-0.2731662751740214</v>
       </c>
       <c r="E90">
-        <v>0.01648071489222495</v>
+        <v>-0.1050980195153475</v>
       </c>
       <c r="F90">
-        <v>0.02694768771844632</v>
+        <v>-0.0365422353627751</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07674555142747098</v>
+        <v>-0.1168834541953181</v>
       </c>
       <c r="C91">
-        <v>-0.07036502493384952</v>
+        <v>0.01616202118544227</v>
       </c>
       <c r="D91">
-        <v>-0.003902352660697003</v>
+        <v>-0.003081206905414058</v>
       </c>
       <c r="E91">
-        <v>-0.004386557847716737</v>
+        <v>0.0594871670131308</v>
       </c>
       <c r="F91">
-        <v>-0.001127847141093704</v>
+        <v>0.03097130411650052</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1848508524846342</v>
+        <v>-0.1449895156772488</v>
       </c>
       <c r="C92">
-        <v>0.2907857426209395</v>
+        <v>0.01416686509517907</v>
       </c>
       <c r="D92">
-        <v>0.02308632000401264</v>
+        <v>-0.3069250408415011</v>
       </c>
       <c r="E92">
-        <v>0.0798691541940615</v>
+        <v>-0.101441982203752</v>
       </c>
       <c r="F92">
-        <v>-0.02376929138652006</v>
+        <v>-0.02789110313832012</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1759580196157673</v>
+        <v>-0.1467357111298112</v>
       </c>
       <c r="C93">
-        <v>0.2998652059207339</v>
+        <v>0.0189889302115627</v>
       </c>
       <c r="D93">
-        <v>-0.04232609700061152</v>
+        <v>-0.2761374430812873</v>
       </c>
       <c r="E93">
-        <v>0.03405863061557014</v>
+        <v>-0.07104346692841276</v>
       </c>
       <c r="F93">
-        <v>0.004603609890012688</v>
+        <v>-0.02643295839302836</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1216372713874753</v>
+        <v>-0.1337736689086487</v>
       </c>
       <c r="C94">
-        <v>-0.08615596658284418</v>
+        <v>0.02349883901046209</v>
       </c>
       <c r="D94">
-        <v>0.01121996433545787</v>
+        <v>0.04855216452055165</v>
       </c>
       <c r="E94">
-        <v>-0.02976556695950617</v>
+        <v>0.06232538973628424</v>
       </c>
       <c r="F94">
-        <v>0.04677910393826071</v>
+        <v>-0.02658706713544425</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1246358405424045</v>
+        <v>-0.1268983535853258</v>
       </c>
       <c r="C95">
-        <v>-0.0813394971760148</v>
+        <v>0.005747567537744866</v>
       </c>
       <c r="D95">
-        <v>0.0141515608505895</v>
+        <v>0.09071565109499165</v>
       </c>
       <c r="E95">
-        <v>0.05282344484741916</v>
+        <v>0.04230629628004259</v>
       </c>
       <c r="F95">
-        <v>-0.152063671736535</v>
+        <v>0.01022869946579034</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0002871481715707576</v>
+        <v>-0.09488257929247063</v>
       </c>
       <c r="C96">
-        <v>-0.0003005703666965844</v>
+        <v>-0.9893964076011842</v>
       </c>
       <c r="D96">
-        <v>-0.0009549663931763784</v>
+        <v>-0.01959956762395616</v>
       </c>
       <c r="E96">
-        <v>-0.002014672626885851</v>
+        <v>0.05932014694115497</v>
       </c>
       <c r="F96">
-        <v>-0.0006353977095311982</v>
+        <v>-0.05035988337159337</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1286274014511029</v>
+        <v>-0.187943913863299</v>
       </c>
       <c r="C97">
-        <v>0.009077794697540408</v>
+        <v>-0.01215681538124226</v>
       </c>
       <c r="D97">
-        <v>0.04002543912078872</v>
+        <v>-0.01399814791916925</v>
       </c>
       <c r="E97">
-        <v>0.234216200644471</v>
+        <v>0.01563565464012336</v>
       </c>
       <c r="F97">
-        <v>0.1785017865222109</v>
+        <v>0.1794278423361789</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2352948610925681</v>
+        <v>-0.206348567508582</v>
       </c>
       <c r="C98">
-        <v>-0.1013062379665371</v>
+        <v>0.006697976924754531</v>
       </c>
       <c r="D98">
-        <v>0.09046651034299265</v>
+        <v>0.01588443901923657</v>
       </c>
       <c r="E98">
-        <v>-0.2896784193474484</v>
+        <v>-0.09035989001176464</v>
       </c>
       <c r="F98">
-        <v>0.006350717835981121</v>
+        <v>0.1376624416370507</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06752240640256918</v>
+        <v>-0.05780411648800237</v>
       </c>
       <c r="C99">
-        <v>-0.06120463122538544</v>
+        <v>-0.003098933981183875</v>
       </c>
       <c r="D99">
-        <v>0.008175178523298699</v>
+        <v>0.03426216312381281</v>
       </c>
       <c r="E99">
-        <v>-0.04154269883180878</v>
+        <v>0.02687901582122334</v>
       </c>
       <c r="F99">
-        <v>0.001816569791340382</v>
+        <v>-0.004064948860160599</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1243939194358685</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04825709130696038</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3236239485997281</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9054858937715257</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05090287466437859</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03335884956855568</v>
+        <v>-0.02721363200239817</v>
       </c>
       <c r="C101">
-        <v>-0.03404293941022446</v>
+        <v>0.009167498269867038</v>
       </c>
       <c r="D101">
-        <v>-0.01659838648397504</v>
+        <v>0.02923395713658178</v>
       </c>
       <c r="E101">
-        <v>0.05219380418660041</v>
+        <v>0.007837720989214318</v>
       </c>
       <c r="F101">
-        <v>-0.01752454865409639</v>
+        <v>0.007425951962714338</v>
       </c>
     </row>
     <row r="102" spans="1:6">
